--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="StartSceneConfig2" sheetId="3" r:id="rId2"/>
-    <sheet name="Router" sheetId="5" r:id="rId3"/>
+    <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -72,6 +71,9 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Match</t>
+  </si>
+  <si>
     <t>Map</t>
   </si>
   <si>
@@ -79,9 +81,6 @@
   </si>
   <si>
     <t>Map2</t>
-  </si>
-  <si>
-    <t>Match</t>
   </si>
   <si>
     <t>RouterManager</t>
@@ -1095,156 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="7" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5">
-        <v>30003</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5">
-        <v>30004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A3:H9"/>
+  <dimension ref="C3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
@@ -1317,27 +1170,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30002</v>
+      </c>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1346,50 +1201,106 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>30003</v>
+      </c>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="H12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1398,13 +1309,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
@@ -1479,10 +1390,10 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5">
         <v>3</v>
@@ -1499,10 +1410,10 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="3:8">
       <c r="C7" s="5">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -1519,10 +1430,10 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="3:8">
       <c r="C8" s="5">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1539,10 +1450,10 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="3:8">
       <c r="C9" s="5">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5">
         <v>3</v>
@@ -1559,10 +1470,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="3:8">
       <c r="C10" s="5">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="D10" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
